--- a/Document/2_DataBase/data 예상도.xlsx
+++ b/Document/2_DataBase/data 예상도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bookstore\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bookstore\Document\2_DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
   <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,11 +317,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R_SCORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR_SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR_SCORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,6 +510,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,7 +798,7 @@
   <dimension ref="A2:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,31 +812,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
@@ -890,12 +902,14 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>42</v>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>8</v>
@@ -932,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
@@ -962,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
@@ -992,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -1015,7 +1029,7 @@
         <v>42</v>
       </c>
       <c r="M8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1030,11 +1044,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="H9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1057,7 @@
         <v>67</v>
       </c>
       <c r="M9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
@@ -1066,6 +1080,13 @@
       </c>
       <c r="F10" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1074,11 +1095,11 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1090,11 +1111,11 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1147,11 +1168,11 @@
       <c r="O16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1166,7 +1187,7 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>34</v>
@@ -1208,11 +1229,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1231,11 +1252,11 @@
       <c r="F21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
@@ -1248,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>55</v>
@@ -1256,11 +1277,11 @@
       <c r="O22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
@@ -1327,11 +1348,11 @@
         <v>41</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>44</v>
@@ -1345,11 +1366,11 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M26" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>36</v>
@@ -1377,11 +1398,11 @@
       <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="5" t="s">
@@ -1393,15 +1414,15 @@
       <c r="F30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M31" s="5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>6</v>
@@ -1440,29 +1461,24 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="M34" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="M35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U16:W16"/>
@@ -1472,6 +1488,11 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
